--- a/document/Q&A.xlsx
+++ b/document/Q&A.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Desktop\Do_an_website_ban_hang_online\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tình trạng câu hỏi
 (Open, Closed)</t>
@@ -45,6 +50,21 @@
   </si>
   <si>
     <t>Q&amp;A</t>
+  </si>
+  <si>
+    <t>Làm thế nào để load databse lên trang web</t>
+  </si>
+  <si>
+    <t>Đỗ Nguyễn Thành Luân</t>
+  </si>
+  <si>
+    <t>Tạ Đình Dương</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Tham khảo đường link asp.net trang chủ</t>
   </si>
 </sst>
 </file>
@@ -129,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -144,6 +164,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,6 +182,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,16 +480,16 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
@@ -514,14 +546,30 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42806</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6">
+        <v>42928</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
